--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H2">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I2">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J2">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N2">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O2">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P2">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q2">
-        <v>181.2704086612021</v>
+        <v>207.8466583263774</v>
       </c>
       <c r="R2">
-        <v>1631.433677950818</v>
+        <v>1870.619924937396</v>
       </c>
       <c r="S2">
-        <v>0.01040571894658097</v>
+        <v>0.01825053021219881</v>
       </c>
       <c r="T2">
-        <v>0.01167799348704598</v>
+        <v>0.0216465958265303</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H3">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I3">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J3">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.572043</v>
       </c>
       <c r="O3">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P3">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q3">
-        <v>8.294720348999332</v>
+        <v>8.760974329083776</v>
       </c>
       <c r="R3">
-        <v>74.65248314099399</v>
+        <v>78.84876896175399</v>
       </c>
       <c r="S3">
-        <v>0.0004761534402092779</v>
+        <v>0.0007692807186255832</v>
       </c>
       <c r="T3">
-        <v>0.000534371224337701</v>
+        <v>0.0009124287678009617</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H4">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I4">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J4">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N4">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O4">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P4">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q4">
-        <v>1.953258235656</v>
+        <v>0.6546029877644445</v>
       </c>
       <c r="R4">
-        <v>17.579324120904</v>
+        <v>5.89142688988</v>
       </c>
       <c r="S4">
-        <v>0.0001121256159813645</v>
+        <v>5.747916132686002E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001258348625292851</v>
+        <v>6.817490556295276E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H5">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I5">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J5">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N5">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O5">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P5">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q5">
-        <v>71.63799670293301</v>
+        <v>113.7148294941537</v>
       </c>
       <c r="R5">
-        <v>429.8279802175981</v>
+        <v>682.288976964922</v>
       </c>
       <c r="S5">
-        <v>0.004112336178267607</v>
+        <v>0.009985033908984952</v>
       </c>
       <c r="T5">
-        <v>0.003076759062517378</v>
+        <v>0.007895368548344094</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H6">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I6">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J6">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N6">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O6">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P6">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q6">
-        <v>1.660814024306</v>
+        <v>0.6733282222177779</v>
       </c>
       <c r="R6">
-        <v>14.947326218754</v>
+        <v>6.059953999959999</v>
       </c>
       <c r="S6">
-        <v>9.533803165727207E-05</v>
+        <v>5.912338048281313E-05</v>
       </c>
       <c r="T6">
-        <v>0.00010699471304933</v>
+        <v>7.012508164580243E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J7">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N7">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O7">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P7">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q7">
-        <v>1780.737118194574</v>
+        <v>1933.148802967866</v>
       </c>
       <c r="R7">
-        <v>16026.63406375116</v>
+        <v>17398.3392267108</v>
       </c>
       <c r="S7">
-        <v>0.1022221448416874</v>
+        <v>0.1697452868250592</v>
       </c>
       <c r="T7">
-        <v>0.1147205251094476</v>
+        <v>0.2013315544610595</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J8">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.572043</v>
       </c>
       <c r="O8">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P8">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q8">
         <v>81.48443267490899</v>
@@ -948,10 +948,10 @@
         <v>733.3598940741809</v>
       </c>
       <c r="S8">
-        <v>0.004677564921925295</v>
+        <v>0.007154957949923303</v>
       </c>
       <c r="T8">
-        <v>0.005249476078865886</v>
+        <v>0.008486355250889433</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J9">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N9">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O9">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P9">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q9">
-        <v>19.188126001044</v>
+        <v>6.08835856398</v>
       </c>
       <c r="R9">
-        <v>172.693134009396</v>
+        <v>54.79522707582</v>
       </c>
       <c r="S9">
-        <v>0.001101482849589789</v>
+        <v>0.0005346045628510106</v>
       </c>
       <c r="T9">
-        <v>0.001236157694594362</v>
+        <v>0.0006340839835611829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>466.501167</v>
       </c>
       <c r="I10">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J10">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N10">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O10">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P10">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q10">
-        <v>703.7466332436046</v>
+        <v>1057.643593052756</v>
       </c>
       <c r="R10">
-        <v>4222.479799461627</v>
+        <v>6345.861558316533</v>
       </c>
       <c r="S10">
-        <v>0.04039815284370189</v>
+        <v>0.09286921668202819</v>
       </c>
       <c r="T10">
-        <v>0.03022500532122925</v>
+        <v>0.07343357060018002</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>466.501167</v>
       </c>
       <c r="I11">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J11">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N11">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O11">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P11">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q11">
-        <v>16.315256314269</v>
+        <v>6.262518999660001</v>
       </c>
       <c r="R11">
-        <v>146.837306828421</v>
+        <v>56.36267099694</v>
       </c>
       <c r="S11">
-        <v>0.0009365674905330017</v>
+        <v>0.0005498971844343531</v>
       </c>
       <c r="T11">
-        <v>0.001051078653072507</v>
+        <v>0.0006522222619943993</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H12">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I12">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J12">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N12">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O12">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P12">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q12">
-        <v>2051.213614016624</v>
+        <v>2422.395272222273</v>
       </c>
       <c r="R12">
-        <v>18460.92252614961</v>
+        <v>21801.55745000046</v>
       </c>
       <c r="S12">
-        <v>0.1177486856486908</v>
+        <v>0.2127048779978849</v>
       </c>
       <c r="T12">
-        <v>0.1321454472461458</v>
+        <v>0.2522850827245597</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H13">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I13">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J13">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.572043</v>
       </c>
       <c r="O13">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P13">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q13">
-        <v>93.86111848033676</v>
+        <v>102.1067308260878</v>
       </c>
       <c r="R13">
-        <v>844.7500663230309</v>
+        <v>918.9605774347899</v>
       </c>
       <c r="S13">
-        <v>0.005388041137721373</v>
+        <v>0.008965753843798378</v>
       </c>
       <c r="T13">
-        <v>0.006046819987860643</v>
+        <v>0.01063410473451016</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H14">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I14">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J14">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N14">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O14">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P14">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q14">
-        <v>22.102614068444</v>
+        <v>7.629216632644444</v>
       </c>
       <c r="R14">
-        <v>198.923526615996</v>
+        <v>68.6629496938</v>
       </c>
       <c r="S14">
-        <v>0.001268787286792282</v>
+        <v>0.0006699037154152638</v>
       </c>
       <c r="T14">
-        <v>0.001423917919335639</v>
+        <v>0.0007945596539761081</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H15">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I15">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J15">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N15">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O15">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P15">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q15">
-        <v>810.6388417349295</v>
+        <v>1325.314862246412</v>
       </c>
       <c r="R15">
-        <v>4863.833050409577</v>
+        <v>7951.88917347847</v>
       </c>
       <c r="S15">
-        <v>0.04653423587763467</v>
+        <v>0.1163728064182913</v>
       </c>
       <c r="T15">
-        <v>0.03481588706450273</v>
+        <v>0.09201833504548565</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H16">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I16">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J16">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N16">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O16">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P16">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q16">
-        <v>18.79338366458567</v>
+        <v>7.847454057177777</v>
       </c>
       <c r="R16">
-        <v>169.140452981271</v>
+        <v>70.62708651459999</v>
       </c>
       <c r="S16">
-        <v>0.001078822902829371</v>
+        <v>0.0006890666345689783</v>
       </c>
       <c r="T16">
-        <v>0.001210727187385447</v>
+        <v>0.0008172884164259612</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H17">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I17">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J17">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N17">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O17">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P17">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q17">
-        <v>738.1451868033286</v>
+        <v>1029.719305986588</v>
       </c>
       <c r="R17">
-        <v>4428.871120819971</v>
+        <v>6178.315835919528</v>
       </c>
       <c r="S17">
-        <v>0.0423727811526191</v>
+        <v>0.09041725017528293</v>
       </c>
       <c r="T17">
-        <v>0.03170237859063053</v>
+        <v>0.07149475102125706</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H18">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I18">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J18">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.572043</v>
       </c>
       <c r="O18">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P18">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q18">
-        <v>33.77665415284049</v>
+        <v>43.40384627086199</v>
       </c>
       <c r="R18">
-        <v>202.659924917043</v>
+        <v>260.423077625172</v>
       </c>
       <c r="S18">
-        <v>0.00193892854694905</v>
+        <v>0.003811190490482233</v>
       </c>
       <c r="T18">
-        <v>0.001450663496317624</v>
+        <v>0.003013585512536378</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H19">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I19">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J19">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,28 +1612,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N19">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O19">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P19">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q19">
-        <v>7.953797731698</v>
+        <v>3.243051101639999</v>
       </c>
       <c r="R19">
-        <v>47.722786390188</v>
+        <v>19.45830660984</v>
       </c>
       <c r="S19">
-        <v>0.0004565829821054355</v>
+        <v>0.0002847647519896359</v>
       </c>
       <c r="T19">
-        <v>0.0003416052985667878</v>
+        <v>0.0002251692570130225</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H20">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I20">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J20">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N20">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O20">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P20">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q20">
-        <v>291.7146976665953</v>
+        <v>563.3689579133489</v>
       </c>
       <c r="R20">
-        <v>1166.858790666381</v>
+        <v>2253.475831653396</v>
       </c>
       <c r="S20">
-        <v>0.01674570702920872</v>
+        <v>0.04946811399232246</v>
       </c>
       <c r="T20">
-        <v>0.008352511991060622</v>
+        <v>0.02607695977272765</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H21">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I21">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J21">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N21">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O21">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P21">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q21">
-        <v>6.7629454099605</v>
+        <v>3.33582014388</v>
       </c>
       <c r="R21">
-        <v>40.577672459763</v>
+        <v>20.01492086328</v>
       </c>
       <c r="S21">
-        <v>0.000388222819746867</v>
+        <v>0.0002929105851812346</v>
       </c>
       <c r="T21">
-        <v>0.0002904597355742969</v>
+        <v>0.0002316103323030256</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H22">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I22">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J22">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.451657</v>
+        <v>12.431794</v>
       </c>
       <c r="N22">
-        <v>34.35497100000001</v>
+        <v>37.295382</v>
       </c>
       <c r="O22">
-        <v>0.6845114669615145</v>
+        <v>0.6267040910788743</v>
       </c>
       <c r="P22">
-        <v>0.7523533426569311</v>
+        <v>0.7075740515758999</v>
       </c>
       <c r="Q22">
-        <v>7173.006604783923</v>
+        <v>1544.126499693321</v>
       </c>
       <c r="R22">
-        <v>64557.05944305531</v>
+        <v>13897.13849723989</v>
       </c>
       <c r="S22">
-        <v>0.4117621363719363</v>
+        <v>0.1355861458684483</v>
       </c>
       <c r="T22">
-        <v>0.4621069982236612</v>
+        <v>0.1608160675424935</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H23">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I23">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J23">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.572043</v>
       </c>
       <c r="O23">
-        <v>0.03132243831777881</v>
+        <v>0.0264162940991436</v>
       </c>
       <c r="P23">
-        <v>0.03442680262633403</v>
+        <v>0.0298250554119953</v>
       </c>
       <c r="Q23">
-        <v>328.2283318476481</v>
+        <v>65.08669772995987</v>
       </c>
       <c r="R23">
-        <v>2954.054986628834</v>
+        <v>585.7802795696389</v>
       </c>
       <c r="S23">
-        <v>0.01884175027097381</v>
+        <v>0.005715111096314097</v>
       </c>
       <c r="T23">
-        <v>0.02114547183895218</v>
+        <v>0.006778581146258378</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H24">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I24">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J24">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1922,28 +1922,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.123396</v>
+        <v>0.03915333333333333</v>
       </c>
       <c r="N24">
-        <v>0.370188</v>
+        <v>0.11746</v>
       </c>
       <c r="O24">
-        <v>0.007375873812600485</v>
+        <v>0.001973774193762771</v>
       </c>
       <c r="P24">
-        <v>0.008106896064953278</v>
+        <v>0.002228470219130754</v>
       </c>
       <c r="Q24">
-        <v>77.29189959181599</v>
+        <v>4.863151653842221</v>
       </c>
       <c r="R24">
-        <v>695.627096326344</v>
+        <v>43.76836488458</v>
       </c>
       <c r="S24">
-        <v>0.004436895078131613</v>
+        <v>0.0004270220021800001</v>
       </c>
       <c r="T24">
-        <v>0.004979380289927204</v>
+        <v>0.0005064824190174882</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H25">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I25">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J25">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.525690500000001</v>
+        <v>6.8015495</v>
       </c>
       <c r="N25">
-        <v>9.051381000000001</v>
+        <v>13.603099</v>
       </c>
       <c r="O25">
-        <v>0.2705186719414308</v>
+        <v>0.3428756056708687</v>
       </c>
       <c r="P25">
-        <v>0.1982198369782188</v>
+        <v>0.2580802061075034</v>
       </c>
       <c r="Q25">
-        <v>2834.769487743813</v>
+        <v>844.8058922087878</v>
       </c>
       <c r="R25">
-        <v>17008.61692646288</v>
+        <v>5068.835353252726</v>
       </c>
       <c r="S25">
-        <v>0.1627282400126179</v>
+        <v>0.07418043466924176</v>
       </c>
       <c r="T25">
-        <v>0.1217496735389088</v>
+        <v>0.058655972140766</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H26">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I26">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J26">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.104921</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N26">
-        <v>0.314763</v>
+        <v>0.12082</v>
       </c>
       <c r="O26">
-        <v>0.00627154896667522</v>
+        <v>0.002030234957350741</v>
       </c>
       <c r="P26">
-        <v>0.006893121673562861</v>
+        <v>0.002292216685470609</v>
       </c>
       <c r="Q26">
-        <v>65.71966187779933</v>
+        <v>5.002264454428889</v>
       </c>
       <c r="R26">
-        <v>591.4769569001941</v>
+        <v>45.02038008986</v>
       </c>
       <c r="S26">
-        <v>0.003772597721908709</v>
+        <v>0.0004392371726833614</v>
       </c>
       <c r="T26">
-        <v>0.00423386138448128</v>
+        <v>0.0005209705931014212</v>
       </c>
     </row>
   </sheetData>
